--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_9_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165089.721407004</v>
+        <v>1162058.936178646</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6451203.529726284</v>
+        <v>6451203.529726285</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.361305680129117</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F3" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G3" t="n">
         <v>23.55470292302859</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="H3" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="I3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.4487593605094</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>27.59002526031614</v>
@@ -865,7 +865,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.04785205983618</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,73 +896,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="D5" t="n">
-        <v>24.30129424928645</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
+        <v>8.998556734151398</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G5" t="n">
+      <c r="Y5" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,55 +972,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23.55470292302859</v>
+      </c>
+      <c r="H6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>19.72731862540289</v>
+      </c>
+      <c r="I7" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="G8" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>28.75068812918423</v>
+        <v>3.383617535028112</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3.38361753502814</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
     </row>
     <row r="9">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="S9" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>25.32360610418547</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>28.75068812918423</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>28.75068812918423</v>
+        <v>24.57701477792759</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>28.75068812918423</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>28.75068812918423</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>28.75068812918423</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>18.52046137435386</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.24190210946038</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U11" t="n">
-        <v>231.863583504628</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V11" t="n">
-        <v>263.2420339516666</v>
+        <v>196.5911119894131</v>
       </c>
       <c r="W11" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U12" t="n">
         <v>225.9381254702172</v>
@@ -1509,13 +1509,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>192.1220443976249</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>105.3830043755881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>51.96190712986719</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>51.96190712986719</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>90.42516245839145</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>263.2420339516666</v>
+        <v>24.954421315257</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1692,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>26.50594853071671</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.1592068115346</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>51.96190712986719</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K16" t="n">
         <v>17.44799951871617</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.3870695882587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,28 +1844,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20.85732126240478</v>
+      </c>
+      <c r="F17" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>9.172723217728397</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>176.3586769620941</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>28.91361139745537</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="U19" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,73 +2078,73 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>87.80598074015781</v>
+      </c>
+      <c r="F20" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="C20" t="n">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>144.0576027644702</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D20" t="n">
+      <c r="X20" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>24.95172480471521</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>206.9118586999128</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2166,16 +2166,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>66.11653918942021</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,25 +2205,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S21" t="n">
-        <v>8.441696730280878</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="H23" t="n">
-        <v>243.7673658373624</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,19 +2363,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9.172723217728171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2400,10 +2400,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>93.0821010185221</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>70.92711473158788</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>77.14804664098561</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>77.14804664098561</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>263.2420339516666</v>
+        <v>9.172723217728318</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>121.8357702317779</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>222.6908602868995</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,19 +2631,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>50.26855019782282</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>140.3922682457801</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,14 +2792,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>32.76110359513923</v>
+        <v>81.28459656701079</v>
       </c>
       <c r="I29" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J29" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>35.41643372067141</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>138.4474905907498</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>13.40110646040572</v>
       </c>
       <c r="G31" t="n">
-        <v>14.41402108404363</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3029,73 +3029,73 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>243.7673658373624</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>251.3382516189322</v>
+      </c>
+      <c r="V32" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="D32" t="n">
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>231.863583504628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>104.2512610900456</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3117,13 +3117,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H33" t="n">
-        <v>6.528928359044593</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S33" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3244,7 +3244,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>159.8350691069748</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,25 +3311,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>21.07650555046293</v>
+        <v>81.28459656701082</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T35" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3393,25 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S36" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>124.1767192955758</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>126.0958943434074</v>
       </c>
     </row>
     <row r="37">
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.6870224659892</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.14804664098561</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3518,58 +3518,58 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.07650555046293</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>222.6908602868995</v>
+      </c>
+      <c r="U38" t="n">
+        <v>251.3382516189322</v>
+      </c>
+      <c r="V38" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="I38" t="n">
-        <v>206.909162189371</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
-        <v>24.954421315257</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="X38" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>26.36279414898636</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3630,16 +3630,16 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S39" t="n">
-        <v>80.28374819330818</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>13.40110646040572</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,22 +3743,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>200.4690277542072</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>144.1361559919116</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>111.1907825699907</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T42" t="n">
         <v>199.9652070090748</v>
@@ -3879,7 +3879,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>95.03758237058729</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3910,40 +3910,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>231.8635835046279</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>20.85462475186284</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4071,7 +4071,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H45" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.11289138016656</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>167.3779085726742</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>70.01461603622408</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="C2" t="n">
-        <v>70.01461603622408</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="D2" t="n">
-        <v>70.01461603622408</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="E2" t="n">
-        <v>70.01461603622408</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="F2" t="n">
-        <v>42.14590365206637</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I2" t="n">
-        <v>14.27719126790864</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J2" t="n">
         <v>2.207202020825291</v>
@@ -4334,46 +4334,46 @@
         <v>29.52132702853827</v>
       </c>
       <c r="L2" t="n">
-        <v>56.83545203625125</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M2" t="n">
-        <v>84.14957704396423</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N2" t="n">
-        <v>110.3601010412646</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O2" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P2" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="Q2" t="n">
-        <v>100.2684856730375</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R2" t="n">
-        <v>72.39977328887976</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Y2" t="n">
-        <v>70.01461603622408</v>
+        <v>110.3601010412646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.56747182608416</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="C3" t="n">
-        <v>86.56747182608416</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="D3" t="n">
-        <v>86.56747182608416</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="E3" t="n">
-        <v>86.56747182608416</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F3" t="n">
-        <v>86.56747182608416</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="G3" t="n">
-        <v>58.69875944192644</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="H3" t="n">
-        <v>30.83004705776872</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="I3" t="n">
         <v>2.961334673611005</v>
@@ -4416,16 +4416,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="M3" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N3" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="O3" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P3" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q3" t="n">
         <v>110.3601010412646</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="C4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="D4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="E4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="F4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="G4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="H4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="I4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="J4" t="n">
-        <v>4.078449383226349</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="K4" t="n">
-        <v>4.078449383226349</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L4" t="n">
-        <v>31.39257439093933</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M4" t="n">
-        <v>58.7066993986523</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N4" t="n">
-        <v>86.02082440636528</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O4" t="n">
-        <v>110.3601010412646</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P4" t="n">
-        <v>110.3601010412646</v>
+        <v>105.7399236434024</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.49138865710684</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R4" t="n">
-        <v>54.62267627294912</v>
+        <v>50.00249887508694</v>
       </c>
       <c r="S4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="T4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="U4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="V4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="W4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="X4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.7539638887914</v>
+        <v>24.70163820858575</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C5" t="n">
-        <v>82.49138865710684</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D5" t="n">
-        <v>57.94462678914073</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E5" t="n">
-        <v>57.94462678914073</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F5" t="n">
-        <v>30.07591440498301</v>
+        <v>17.66451264217383</v>
       </c>
       <c r="G5" t="n">
         <v>2.207202020825291</v>
@@ -4568,16 +4568,16 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K5" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="M5" t="n">
         <v>28.41772601812563</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>55.73185102583861</v>
-      </c>
-      <c r="M5" t="n">
-        <v>83.04597603355158</v>
-      </c>
-      <c r="N5" t="n">
-        <v>83.04597603355158</v>
       </c>
       <c r="O5" t="n">
         <v>83.04597603355158</v>
@@ -4607,10 +4607,10 @@
         <v>110.3601010412646</v>
       </c>
       <c r="X5" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y5" t="n">
-        <v>110.3601010412646</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="C6" t="n">
-        <v>85.81333917329844</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="D6" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="E6" t="n">
-        <v>57.94462678914073</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="F6" t="n">
-        <v>30.07591440498301</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="G6" t="n">
-        <v>2.207202020825291</v>
+        <v>58.69875944192644</v>
       </c>
       <c r="H6" t="n">
-        <v>2.207202020825291</v>
+        <v>30.83004705776872</v>
       </c>
       <c r="I6" t="n">
-        <v>2.207202020825291</v>
+        <v>2.961334673611005</v>
       </c>
       <c r="J6" t="n">
         <v>2.207202020825291</v>
       </c>
       <c r="K6" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L6" t="n">
-        <v>28.41772601812563</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M6" t="n">
-        <v>28.41772601812563</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="N6" t="n">
-        <v>28.41772601812563</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O6" t="n">
-        <v>55.73185102583861</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P6" t="n">
-        <v>83.04597603355158</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q6" t="n">
         <v>110.3601010412646</v>
       </c>
       <c r="R6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.3601010412646</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>77.87121125924466</v>
+      </c>
+      <c r="C7" t="n">
+        <v>77.87121125924466</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77.87121125924466</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50.00249887508694</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50.00249887508694</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50.00249887508694</v>
+      </c>
+      <c r="H7" t="n">
         <v>30.07591440498301</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="E7" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="F7" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30.07591440498301</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.207202020825291</v>
       </c>
       <c r="I7" t="n">
         <v>2.207202020825291</v>
@@ -4744,7 +4744,7 @@
         <v>105.7399236434024</v>
       </c>
       <c r="Q7" t="n">
-        <v>105.7399236434024</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="R7" t="n">
         <v>77.87121125924466</v>
@@ -4753,22 +4753,22 @@
         <v>77.87121125924466</v>
       </c>
       <c r="T7" t="n">
-        <v>50.00249887508694</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="U7" t="n">
-        <v>30.07591440498301</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="V7" t="n">
-        <v>30.07591440498301</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="W7" t="n">
-        <v>30.07591440498301</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="X7" t="n">
-        <v>30.07591440498301</v>
+        <v>77.87121125924466</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.07591440498301</v>
+        <v>77.87121125924466</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.45224253819431</v>
+        <v>72.45224253819428</v>
       </c>
       <c r="C8" t="n">
-        <v>72.45224253819431</v>
+        <v>72.45224253819428</v>
       </c>
       <c r="D8" t="n">
-        <v>72.45224253819431</v>
+        <v>72.45224253819428</v>
       </c>
       <c r="E8" t="n">
-        <v>72.45224253819431</v>
+        <v>72.45224253819428</v>
       </c>
       <c r="F8" t="n">
-        <v>43.4111434178062</v>
+        <v>43.41114341780619</v>
       </c>
       <c r="G8" t="n">
         <v>14.37004429741809</v>
@@ -4802,52 +4802,52 @@
         <v>14.37004429741809</v>
       </c>
       <c r="J8" t="n">
-        <v>2.300055050334739</v>
+        <v>2.300055050334737</v>
       </c>
       <c r="K8" t="n">
-        <v>30.76323629822712</v>
+        <v>30.76323629822711</v>
       </c>
       <c r="L8" t="n">
-        <v>30.76323629822712</v>
+        <v>59.22641754611948</v>
       </c>
       <c r="M8" t="n">
-        <v>59.22641754611951</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="N8" t="n">
-        <v>86.53957126884453</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="O8" t="n">
-        <v>115.0027525167369</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="P8" t="n">
-        <v>115.0027525167369</v>
+        <v>115.0027525167368</v>
       </c>
       <c r="Q8" t="n">
         <v>104.9111371485098</v>
       </c>
       <c r="R8" t="n">
-        <v>75.87003802812173</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="S8" t="n">
-        <v>75.87003802812173</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="T8" t="n">
-        <v>75.87003802812173</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="U8" t="n">
-        <v>75.87003802812173</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="V8" t="n">
-        <v>72.45224253819431</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="W8" t="n">
-        <v>72.45224253819431</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="X8" t="n">
-        <v>72.45224253819431</v>
+        <v>101.4933416585824</v>
       </c>
       <c r="Y8" t="n">
-        <v>72.45224253819431</v>
+        <v>72.45224253819428</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="C9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="D9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="E9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="F9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="G9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="H9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="I9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="J9" t="n">
-        <v>2.300055050334739</v>
+        <v>2.300055050334737</v>
       </c>
       <c r="K9" t="n">
-        <v>30.76323629822712</v>
+        <v>30.76323629822711</v>
       </c>
       <c r="L9" t="n">
-        <v>59.22641754611951</v>
+        <v>59.22641754611948</v>
       </c>
       <c r="M9" t="n">
-        <v>87.68959879401189</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="N9" t="n">
-        <v>87.68959879401189</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="O9" t="n">
-        <v>115.0027525167369</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="P9" t="n">
-        <v>115.0027525167369</v>
+        <v>86.53957126884448</v>
       </c>
       <c r="Q9" t="n">
-        <v>115.0027525167369</v>
+        <v>115.0027525167368</v>
       </c>
       <c r="R9" t="n">
-        <v>115.0027525167369</v>
+        <v>85.96165339634875</v>
       </c>
       <c r="S9" t="n">
-        <v>85.96165339634881</v>
+        <v>56.92055427596065</v>
       </c>
       <c r="T9" t="n">
-        <v>85.96165339634881</v>
+        <v>27.87945515557256</v>
       </c>
       <c r="U9" t="n">
-        <v>85.96165339634881</v>
+        <v>27.87945515557256</v>
       </c>
       <c r="V9" t="n">
-        <v>60.38225329111096</v>
+        <v>27.87945515557256</v>
       </c>
       <c r="W9" t="n">
-        <v>31.34115417072285</v>
+        <v>27.87945515557256</v>
       </c>
       <c r="X9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.300055050334739</v>
+        <v>3.054187703120451</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="C10" t="n">
-        <v>60.38225329111096</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="D10" t="n">
-        <v>31.34115417072285</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="E10" t="n">
-        <v>31.34115417072285</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="F10" t="n">
-        <v>2.300055050334739</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="G10" t="n">
-        <v>2.300055050334739</v>
+        <v>21.00759179210631</v>
       </c>
       <c r="H10" t="n">
-        <v>2.300055050334739</v>
+        <v>21.00759179210631</v>
       </c>
       <c r="I10" t="n">
-        <v>2.300055050334739</v>
+        <v>2.300055050334737</v>
       </c>
       <c r="J10" t="n">
-        <v>2.300055050334739</v>
+        <v>2.300055050334737</v>
       </c>
       <c r="K10" t="n">
-        <v>2.300055050334739</v>
+        <v>2.300055050334737</v>
       </c>
       <c r="L10" t="n">
         <v>29.61418005804772</v>
       </c>
       <c r="M10" t="n">
-        <v>58.0773613059401</v>
+        <v>58.07736130594009</v>
       </c>
       <c r="N10" t="n">
-        <v>86.54054255383249</v>
+        <v>86.54054255383245</v>
       </c>
       <c r="O10" t="n">
-        <v>110.8798191887318</v>
+        <v>110.8798191887317</v>
       </c>
       <c r="P10" t="n">
-        <v>110.8798191887318</v>
+        <v>108.1308891532706</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.42335241149907</v>
+        <v>79.0897900328825</v>
       </c>
       <c r="R10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="S10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="T10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="U10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="V10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="W10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="X10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.42335241149907</v>
+        <v>50.04869091249441</v>
       </c>
     </row>
     <row r="11">
@@ -5063,22 +5063,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R11" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S11" t="n">
-        <v>1052.968135806666</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T11" t="n">
-        <v>1052.968135806666</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="U11" t="n">
-        <v>818.7624959030018</v>
+        <v>219.6362435135203</v>
       </c>
       <c r="V11" t="n">
-        <v>552.8614515073789</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W11" t="n">
-        <v>286.9604071117561</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X11" t="n">
         <v>21.05936271613333</v>
@@ -5124,19 +5124,19 @@
         <v>158.2210505399122</v>
       </c>
       <c r="L12" t="n">
-        <v>398.8245784347747</v>
+        <v>339.747533904268</v>
       </c>
       <c r="M12" t="n">
-        <v>659.4341920469246</v>
+        <v>600.357147516418</v>
       </c>
       <c r="N12" t="n">
-        <v>920.0438056590746</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="O12" t="n">
-        <v>977.3180709271187</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P12" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q12" t="n">
         <v>1052.968135806666</v>
@@ -5145,22 +5145,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S12" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T12" t="n">
-        <v>1052.968135806666</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="U12" t="n">
-        <v>824.7478070488712</v>
+        <v>450.2741420565881</v>
       </c>
       <c r="V12" t="n">
-        <v>589.5956988171286</v>
+        <v>215.1220338248453</v>
       </c>
       <c r="W12" t="n">
-        <v>335.3583420889269</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X12" t="n">
-        <v>127.5068418833941</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y12" t="n">
         <v>21.05936271613333</v>
@@ -5188,10 +5188,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="G13" t="n">
-        <v>182.5089274706534</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="H13" t="n">
-        <v>182.5089274706534</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="I13" t="n">
         <v>130.0221525919996</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.05936271613333</v>
+        <v>1027.761649629639</v>
       </c>
       <c r="C14" t="n">
-        <v>21.05936271613333</v>
+        <v>1027.761649629639</v>
       </c>
       <c r="D14" t="n">
-        <v>21.05936271613333</v>
+        <v>1027.761649629639</v>
       </c>
       <c r="E14" t="n">
-        <v>21.05936271613333</v>
+        <v>1027.761649629639</v>
       </c>
       <c r="F14" t="n">
-        <v>21.05936271613333</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="G14" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="H14" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I14" t="n">
         <v>21.05936271613333</v>
@@ -5285,7 +5285,7 @@
         <v>330.254671414236</v>
       </c>
       <c r="M14" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N14" t="n">
         <v>785.5101925369328</v>
@@ -5312,16 +5312,16 @@
         <v>1052.968135806666</v>
       </c>
       <c r="V14" t="n">
-        <v>818.7624959030018</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W14" t="n">
-        <v>552.8614515073789</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X14" t="n">
-        <v>286.9604071117561</v>
+        <v>1027.761649629639</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.05936271613333</v>
+        <v>1027.761649629639</v>
       </c>
     </row>
     <row r="15">
@@ -5331,49 +5331,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>676.9925000216444</v>
+        <v>684.5919838254523</v>
       </c>
       <c r="C15" t="n">
-        <v>502.5394707405175</v>
+        <v>510.1389545443253</v>
       </c>
       <c r="D15" t="n">
-        <v>353.6050610792662</v>
+        <v>361.204544883074</v>
       </c>
       <c r="E15" t="n">
-        <v>194.3676060738107</v>
+        <v>361.204544883074</v>
       </c>
       <c r="F15" t="n">
-        <v>47.83304810069566</v>
+        <v>361.204544883074</v>
       </c>
       <c r="G15" t="n">
-        <v>21.05936271613333</v>
+        <v>222.5237199540885</v>
       </c>
       <c r="H15" t="n">
-        <v>21.05936271613333</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I15" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J15" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K15" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L15" t="n">
-        <v>339.9440834239259</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M15" t="n">
-        <v>600.5536970360758</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N15" t="n">
-        <v>600.5536970360758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O15" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P15" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q15" t="n">
         <v>1052.968135806666</v>
@@ -5385,22 +5385,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T15" t="n">
-        <v>1052.968135806666</v>
+        <v>852.8073208455203</v>
       </c>
       <c r="U15" t="n">
-        <v>1052.968135806666</v>
+        <v>852.8073208455203</v>
       </c>
       <c r="V15" t="n">
-        <v>1052.968135806666</v>
+        <v>852.8073208455203</v>
       </c>
       <c r="W15" t="n">
-        <v>1052.968135806666</v>
+        <v>852.8073208455203</v>
       </c>
       <c r="X15" t="n">
-        <v>1052.968135806666</v>
+        <v>852.8073208455203</v>
       </c>
       <c r="Y15" t="n">
-        <v>845.2078370417125</v>
+        <v>852.8073208455203</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="C16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="D16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="E16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="F16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="G16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="H16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="I16" t="n">
-        <v>38.68360465423048</v>
+        <v>130.0221525919996</v>
       </c>
       <c r="J16" t="n">
         <v>38.68360465423048</v>
@@ -5479,7 +5479,7 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.68360465423048</v>
+        <v>182.5089274706534</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C17" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="D17" t="n">
-        <v>21.05936271613333</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="E17" t="n">
-        <v>21.05936271613333</v>
+        <v>1031.90013453151</v>
       </c>
       <c r="F17" t="n">
-        <v>21.05936271613333</v>
+        <v>765.9990901358872</v>
       </c>
       <c r="G17" t="n">
-        <v>21.05936271613333</v>
+        <v>500.0980457402644</v>
       </c>
       <c r="H17" t="n">
-        <v>21.05936271613333</v>
+        <v>234.1970013446416</v>
       </c>
       <c r="I17" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J17" t="n">
         <v>21.05936271613333</v>
@@ -5522,7 +5522,7 @@
         <v>330.254671414236</v>
       </c>
       <c r="M17" t="n">
-        <v>563.3128681098021</v>
+        <v>563.3128681098023</v>
       </c>
       <c r="N17" t="n">
         <v>785.5101925369328</v>
@@ -5543,22 +5543,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T17" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U17" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V17" t="n">
-        <v>828.0278728906062</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W17" t="n">
-        <v>818.7624959030018</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X17" t="n">
-        <v>552.8614515073789</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y17" t="n">
-        <v>286.9604071117561</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>666.9765578616446</v>
+        <v>815.9109675228958</v>
       </c>
       <c r="C18" t="n">
-        <v>666.9765578616446</v>
+        <v>815.9109675228958</v>
       </c>
       <c r="D18" t="n">
         <v>666.9765578616446</v>
@@ -5595,22 +5595,22 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K18" t="n">
-        <v>24.95018035683209</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L18" t="n">
-        <v>265.5537082516946</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M18" t="n">
-        <v>526.1633218638444</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N18" t="n">
-        <v>786.7729354759944</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O18" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P18" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q18" t="n">
         <v>1052.968135806666</v>
@@ -5628,16 +5628,16 @@
         <v>1052.968135806666</v>
       </c>
       <c r="V18" t="n">
-        <v>874.8280580671774</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W18" t="n">
-        <v>874.8280580671774</v>
+        <v>1023.762467728429</v>
       </c>
       <c r="X18" t="n">
-        <v>666.9765578616446</v>
+        <v>815.9109675228958</v>
       </c>
       <c r="Y18" t="n">
-        <v>666.9765578616446</v>
+        <v>815.9109675228958</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5701,7 @@
         <v>182.5089274706534</v>
       </c>
       <c r="T19" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U19" t="n">
         <v>21.05936271613333</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>578.0652139363842</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="C20" t="n">
-        <v>312.1641695407614</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="D20" t="n">
-        <v>46.26312514513859</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="E20" t="n">
-        <v>46.26312514513859</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="F20" t="n">
-        <v>46.26312514513859</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G20" t="n">
         <v>21.05936271613333</v>
@@ -5762,7 +5762,7 @@
         <v>563.3128681098023</v>
       </c>
       <c r="N20" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O20" t="n">
         <v>950.1371873885138</v>
@@ -5774,28 +5774,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R20" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S20" t="n">
-        <v>843.966258332007</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T20" t="n">
-        <v>843.966258332007</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U20" t="n">
-        <v>843.966258332007</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="V20" t="n">
-        <v>843.966258332007</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="W20" t="n">
-        <v>843.966258332007</v>
+        <v>641.5543613459222</v>
       </c>
       <c r="X20" t="n">
-        <v>843.966258332007</v>
+        <v>375.6533169502994</v>
       </c>
       <c r="Y20" t="n">
-        <v>843.966258332007</v>
+        <v>375.6533169502994</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>326.8313756947039</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="C21" t="n">
-        <v>326.8313756947039</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="D21" t="n">
-        <v>326.8313756947039</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="E21" t="n">
-        <v>167.5939206892484</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="F21" t="n">
-        <v>21.05936271613333</v>
+        <v>272.6264237837916</v>
       </c>
       <c r="G21" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H21" t="n">
         <v>21.05936271613333</v>
@@ -5835,46 +5835,46 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L21" t="n">
-        <v>261.6628906109958</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="M21" t="n">
-        <v>522.2725042231457</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N21" t="n">
-        <v>600.5536970360758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O21" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P21" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q21" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R21" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S21" t="n">
-        <v>1044.441169412443</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T21" t="n">
-        <v>1044.441169412443</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="U21" t="n">
-        <v>816.2208406546481</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="V21" t="n">
-        <v>581.0687324229054</v>
+        <v>547.2623070089408</v>
       </c>
       <c r="W21" t="n">
-        <v>326.8313756947039</v>
+        <v>547.2623070089408</v>
       </c>
       <c r="X21" t="n">
-        <v>326.8313756947039</v>
+        <v>339.4108068034079</v>
       </c>
       <c r="Y21" t="n">
-        <v>326.8313756947039</v>
+        <v>339.4108068034079</v>
       </c>
     </row>
     <row r="22">
@@ -5938,16 +5938,16 @@
         <v>182.5089274706534</v>
       </c>
       <c r="T22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W22" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X22" t="n">
         <v>21.05936271613333</v>
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="C23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="D23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="E23" t="n">
-        <v>533.1900695737384</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="F23" t="n">
-        <v>533.1900695737384</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="G23" t="n">
-        <v>267.2890251781155</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H23" t="n">
         <v>21.05936271613333</v>
@@ -6011,28 +6011,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R23" t="n">
-        <v>1052.968135806666</v>
+        <v>1043.702758819062</v>
       </c>
       <c r="S23" t="n">
-        <v>1052.968135806666</v>
+        <v>1043.702758819062</v>
       </c>
       <c r="T23" t="n">
-        <v>1052.968135806666</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="U23" t="n">
-        <v>799.0911139693611</v>
+        <v>818.7624959030018</v>
       </c>
       <c r="V23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="W23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="X23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="Y23" t="n">
-        <v>799.0911139693611</v>
+        <v>552.8614515073789</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>448.7721712638493</v>
+        <v>267.1559422311875</v>
       </c>
       <c r="C24" t="n">
-        <v>274.3191419827223</v>
+        <v>92.70291295006049</v>
       </c>
       <c r="D24" t="n">
-        <v>180.2968177215888</v>
+        <v>92.70291295006049</v>
       </c>
       <c r="E24" t="n">
         <v>21.05936271613333</v>
@@ -6066,16 +6066,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J24" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K24" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L24" t="n">
-        <v>21.05936271613333</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M24" t="n">
-        <v>264.2940185443782</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="N24" t="n">
         <v>524.9036321565281</v>
@@ -6096,22 +6096,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T24" t="n">
-        <v>1052.968135806666</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U24" t="n">
-        <v>824.7478070488712</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V24" t="n">
-        <v>824.7478070488712</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="W24" t="n">
-        <v>824.7478070488712</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="X24" t="n">
-        <v>824.7478070488712</v>
+        <v>643.1315780162095</v>
       </c>
       <c r="Y24" t="n">
-        <v>616.9875082839174</v>
+        <v>435.3712792512555</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G25" t="n">
         <v>21.05936271613333</v>
@@ -6172,25 +6172,25 @@
         <v>98.98668255551274</v>
       </c>
       <c r="S25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y25" t="n">
-        <v>98.98668255551274</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>495.9595608383935</v>
+        <v>30.32473970373769</v>
       </c>
       <c r="C26" t="n">
-        <v>495.9595608383935</v>
+        <v>30.32473970373769</v>
       </c>
       <c r="D26" t="n">
-        <v>495.9595608383935</v>
+        <v>30.32473970373769</v>
       </c>
       <c r="E26" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F26" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G26" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H26" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I26" t="n">
         <v>21.05936271613333</v>
@@ -6233,10 +6233,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M26" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N26" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O26" t="n">
         <v>950.1371873885138</v>
@@ -6248,28 +6248,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R26" t="n">
-        <v>929.901701229113</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S26" t="n">
-        <v>720.8998237544536</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T26" t="n">
-        <v>495.9595608383935</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U26" t="n">
-        <v>495.9595608383935</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="V26" t="n">
-        <v>495.9595608383935</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="W26" t="n">
-        <v>495.9595608383935</v>
+        <v>562.1268284949833</v>
       </c>
       <c r="X26" t="n">
-        <v>495.9595608383935</v>
+        <v>296.2257840993605</v>
       </c>
       <c r="Y26" t="n">
-        <v>495.9595608383935</v>
+        <v>296.2257840993605</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>162.8697346815678</v>
+        <v>220.7700857085188</v>
       </c>
       <c r="C27" t="n">
-        <v>162.8697346815678</v>
+        <v>169.9937723773846</v>
       </c>
       <c r="D27" t="n">
-        <v>162.8697346815678</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E27" t="n">
-        <v>162.8697346815678</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F27" t="n">
         <v>21.05936271613333</v>
@@ -6303,16 +6303,16 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J27" t="n">
-        <v>24.95018035683209</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K27" t="n">
-        <v>158.2210505399122</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="L27" t="n">
-        <v>398.8245784347747</v>
+        <v>154.3302328992135</v>
       </c>
       <c r="M27" t="n">
-        <v>524.9036321565281</v>
+        <v>264.2940185443782</v>
       </c>
       <c r="N27" t="n">
         <v>524.9036321565281</v>
@@ -6330,25 +6330,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S27" t="n">
-        <v>880.4795283993074</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T27" t="n">
-        <v>880.4795283993074</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U27" t="n">
-        <v>652.2591996415122</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="V27" t="n">
-        <v>417.1070914097695</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="W27" t="n">
-        <v>162.8697346815678</v>
+        <v>596.7457214935407</v>
       </c>
       <c r="X27" t="n">
-        <v>162.8697346815678</v>
+        <v>596.7457214935407</v>
       </c>
       <c r="Y27" t="n">
-        <v>162.8697346815678</v>
+        <v>388.9854227285868</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="C28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="D28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="E28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="F28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="H28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="I28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="J28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="K28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="L28" t="n">
-        <v>54.48163939360295</v>
+        <v>924.9408477296159</v>
       </c>
       <c r="M28" t="n">
-        <v>100.1098670955239</v>
+        <v>970.5690754315369</v>
       </c>
       <c r="N28" t="n">
-        <v>150.0877739486497</v>
+        <v>1020.546982284663</v>
       </c>
       <c r="O28" t="n">
-        <v>180.2341645716483</v>
+        <v>1050.693372907661</v>
       </c>
       <c r="P28" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q28" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R28" t="n">
-        <v>182.5089274706534</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S28" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="T28" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="U28" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="V28" t="n">
-        <v>182.5089274706534</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="W28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="X28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.05936271613333</v>
+        <v>891.5185710521463</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>533.1900695737384</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="C29" t="n">
-        <v>267.2890251781155</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="D29" t="n">
-        <v>267.2890251781155</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="E29" t="n">
-        <v>267.2890251781155</v>
+        <v>312.1641695407614</v>
       </c>
       <c r="F29" t="n">
-        <v>267.2890251781155</v>
+        <v>312.1641695407614</v>
       </c>
       <c r="G29" t="n">
-        <v>267.2890251781155</v>
+        <v>312.1641695407614</v>
       </c>
       <c r="H29" t="n">
-        <v>234.1970013446416</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I29" t="n">
-        <v>25.19784761800421</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J29" t="n">
         <v>21.05936271613333</v>
@@ -6470,10 +6470,10 @@
         <v>330.254671414236</v>
       </c>
       <c r="M29" t="n">
-        <v>563.3128681098023</v>
+        <v>563.3128681098021</v>
       </c>
       <c r="N29" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O29" t="n">
         <v>950.1371873885138</v>
@@ -6488,25 +6488,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S29" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="T29" t="n">
-        <v>1052.968135806666</v>
+        <v>843.966258332007</v>
       </c>
       <c r="U29" t="n">
-        <v>799.0911139693611</v>
+        <v>843.966258332007</v>
       </c>
       <c r="V29" t="n">
-        <v>799.0911139693611</v>
+        <v>843.966258332007</v>
       </c>
       <c r="W29" t="n">
-        <v>799.0911139693611</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="X29" t="n">
-        <v>799.0911139693611</v>
+        <v>578.0652139363842</v>
       </c>
       <c r="Y29" t="n">
-        <v>533.1900695737384</v>
+        <v>578.0652139363842</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>195.5123919972604</v>
+        <v>56.833538191559</v>
       </c>
       <c r="C30" t="n">
-        <v>21.05936271613333</v>
+        <v>56.833538191559</v>
       </c>
       <c r="D30" t="n">
-        <v>21.05936271613333</v>
+        <v>56.833538191559</v>
       </c>
       <c r="E30" t="n">
-        <v>21.05936271613333</v>
+        <v>56.833538191559</v>
       </c>
       <c r="F30" t="n">
         <v>21.05936271613333</v>
@@ -6543,19 +6543,19 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K30" t="n">
-        <v>30.73231659501204</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L30" t="n">
-        <v>271.3358444898745</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M30" t="n">
-        <v>531.9454581020244</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N30" t="n">
-        <v>792.5550717141743</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O30" t="n">
-        <v>1052.968135806666</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P30" t="n">
         <v>1052.968135806666</v>
@@ -6564,28 +6564,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R30" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S30" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T30" t="n">
-        <v>913.1221857149999</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U30" t="n">
-        <v>684.9018569572047</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="V30" t="n">
-        <v>449.749748725462</v>
+        <v>726.6826938902474</v>
       </c>
       <c r="W30" t="n">
-        <v>195.5123919972604</v>
+        <v>472.4453371620457</v>
       </c>
       <c r="X30" t="n">
-        <v>195.5123919972604</v>
+        <v>264.5938369565129</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.5123919972604</v>
+        <v>56.833538191559</v>
       </c>
     </row>
     <row r="31">
@@ -6604,10 +6604,10 @@
         <v>1052.968135806666</v>
       </c>
       <c r="E31" t="n">
-        <v>1052.968135806666</v>
+        <v>905.0550422242733</v>
       </c>
       <c r="F31" t="n">
-        <v>906.078188308756</v>
+        <v>891.5185710521463</v>
       </c>
       <c r="G31" t="n">
         <v>891.5185710521463</v>
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>552.8614515073789</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="C32" t="n">
-        <v>286.9604071117561</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="D32" t="n">
-        <v>21.05936271613333</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="E32" t="n">
-        <v>21.05936271613333</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="F32" t="n">
         <v>21.05936271613333</v>
@@ -6731,19 +6731,19 @@
         <v>1052.968135806666</v>
       </c>
       <c r="U32" t="n">
-        <v>1052.968135806666</v>
+        <v>799.0911139693611</v>
       </c>
       <c r="V32" t="n">
-        <v>1052.968135806666</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="W32" t="n">
-        <v>787.0670914110435</v>
+        <v>533.1900695737384</v>
       </c>
       <c r="X32" t="n">
-        <v>787.0670914110435</v>
+        <v>267.2890251781155</v>
       </c>
       <c r="Y32" t="n">
-        <v>552.8614515073789</v>
+        <v>267.2890251781155</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>510.2791337943152</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="C33" t="n">
-        <v>335.8261045131882</v>
+        <v>614.4466102849406</v>
       </c>
       <c r="D33" t="n">
-        <v>186.8916948519369</v>
+        <v>465.5122006236894</v>
       </c>
       <c r="E33" t="n">
-        <v>27.6542398464814</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F33" t="n">
-        <v>27.6542398464814</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G33" t="n">
-        <v>27.6542398464814</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H33" t="n">
         <v>21.05936271613333</v>
@@ -6777,52 +6777,52 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J33" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K33" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="L33" t="n">
-        <v>261.6628906109958</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="M33" t="n">
-        <v>522.2725042231457</v>
+        <v>265.5537082516946</v>
       </c>
       <c r="N33" t="n">
-        <v>600.5536970360758</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O33" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P33" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q33" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R33" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S33" t="n">
-        <v>880.4795283993074</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T33" t="n">
-        <v>678.4944708143832</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U33" t="n">
-        <v>678.4944708143832</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V33" t="n">
-        <v>678.4944708143832</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="W33" t="n">
-        <v>678.4944708143832</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="X33" t="n">
-        <v>678.4944708143832</v>
+        <v>719.7509144162998</v>
       </c>
       <c r="Y33" t="n">
-        <v>678.4944708143832</v>
+        <v>719.7509144162998</v>
       </c>
     </row>
     <row r="34">
@@ -6880,16 +6880,16 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R34" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S34" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T34" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U34" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V34" t="n">
         <v>21.05936271613333</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="C35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="D35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="E35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="F35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="G35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="H35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="I35" t="n">
         <v>21.05936271613333</v>
@@ -6959,28 +6959,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R35" t="n">
-        <v>1031.678736260744</v>
+        <v>970.8624827086757</v>
       </c>
       <c r="S35" t="n">
-        <v>1031.678736260744</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="T35" t="n">
-        <v>806.7384733446842</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="U35" t="n">
-        <v>552.8614515073789</v>
+        <v>761.8606052340162</v>
       </c>
       <c r="V35" t="n">
-        <v>286.9604071117561</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="W35" t="n">
-        <v>21.05936271613333</v>
+        <v>495.9595608383935</v>
       </c>
       <c r="X35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
       <c r="Y35" t="n">
-        <v>21.05936271613333</v>
+        <v>230.0585164427707</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>167.5939206892484</v>
+        <v>457.3330377971844</v>
       </c>
       <c r="C36" t="n">
-        <v>167.5939206892484</v>
+        <v>282.8800085160573</v>
       </c>
       <c r="D36" t="n">
-        <v>167.5939206892484</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="E36" t="n">
-        <v>167.5939206892484</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="F36" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="G36" t="n">
-        <v>21.05936271613333</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H36" t="n">
         <v>21.05936271613333</v>
@@ -7017,22 +7017,22 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K36" t="n">
-        <v>24.95018035683209</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L36" t="n">
-        <v>24.95018035683209</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="M36" t="n">
-        <v>264.2940185443782</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="N36" t="n">
-        <v>524.9036321565281</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O36" t="n">
-        <v>785.3166962490202</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P36" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q36" t="n">
         <v>1052.968135806666</v>
@@ -7041,25 +7041,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S36" t="n">
-        <v>782.4144152406835</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T36" t="n">
-        <v>782.4144152406835</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U36" t="n">
-        <v>782.4144152406835</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V36" t="n">
-        <v>547.2623070089408</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="W36" t="n">
-        <v>293.0249502807391</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="X36" t="n">
-        <v>167.5939206892484</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="Y36" t="n">
-        <v>167.5939206892484</v>
+        <v>625.5483748172524</v>
       </c>
     </row>
     <row r="37">
@@ -7114,7 +7114,7 @@
         <v>182.5089274706534</v>
       </c>
       <c r="Q37" t="n">
-        <v>98.98668255551274</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R37" t="n">
         <v>21.05936271613333</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H38" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I38" t="n">
         <v>21.05936271613333</v>
@@ -7196,28 +7196,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R38" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.678736260744</v>
       </c>
       <c r="S38" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.678736260744</v>
       </c>
       <c r="T38" t="n">
-        <v>1052.968135806666</v>
+        <v>806.7384733446842</v>
       </c>
       <c r="U38" t="n">
-        <v>1052.968135806666</v>
+        <v>552.8614515073789</v>
       </c>
       <c r="V38" t="n">
-        <v>1052.968135806666</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="W38" t="n">
-        <v>1027.761649629639</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X38" t="n">
-        <v>761.8606052340162</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y38" t="n">
-        <v>495.9595608383935</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.05936271613333</v>
+        <v>371.0758866574877</v>
       </c>
       <c r="C39" t="n">
-        <v>21.05936271613333</v>
+        <v>196.6228573763607</v>
       </c>
       <c r="D39" t="n">
-        <v>21.05936271613333</v>
+        <v>47.68844771510945</v>
       </c>
       <c r="E39" t="n">
         <v>21.05936271613333</v>
@@ -7257,16 +7257,16 @@
         <v>24.95018035683209</v>
       </c>
       <c r="L39" t="n">
-        <v>265.5537082516946</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="M39" t="n">
-        <v>526.1633218638444</v>
+        <v>285.559793968982</v>
       </c>
       <c r="N39" t="n">
-        <v>716.9050068346266</v>
+        <v>546.169407581132</v>
       </c>
       <c r="O39" t="n">
-        <v>977.3180709271187</v>
+        <v>806.582471673624</v>
       </c>
       <c r="P39" t="n">
         <v>977.3180709271187</v>
@@ -7278,25 +7278,25 @@
         <v>954.9030226480426</v>
       </c>
       <c r="S39" t="n">
-        <v>873.8083275032868</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T39" t="n">
-        <v>671.8232699183627</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="U39" t="n">
-        <v>671.8232699183627</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="V39" t="n">
-        <v>436.6711616866201</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="W39" t="n">
-        <v>436.6711616866201</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="X39" t="n">
-        <v>228.8196614810873</v>
+        <v>747.0515224425097</v>
       </c>
       <c r="Y39" t="n">
-        <v>21.05936271613333</v>
+        <v>539.2912236775558</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="D40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="E40" t="n">
-        <v>891.5185710521463</v>
+        <v>905.0550422242733</v>
       </c>
       <c r="F40" t="n">
         <v>891.5185710521463</v>
@@ -7366,16 +7366,16 @@
         <v>1052.968135806666</v>
       </c>
       <c r="V40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>698.4535282668857</v>
+      </c>
+      <c r="C41" t="n">
+        <v>698.4535282668857</v>
+      </c>
+      <c r="D41" t="n">
+        <v>698.4535282668857</v>
+      </c>
+      <c r="E41" t="n">
         <v>432.5524838712628</v>
       </c>
-      <c r="C41" t="n">
-        <v>432.5524838712628</v>
-      </c>
-      <c r="D41" t="n">
-        <v>230.0585164427707</v>
-      </c>
-      <c r="E41" t="n">
-        <v>230.0585164427707</v>
-      </c>
       <c r="F41" t="n">
-        <v>230.0585164427707</v>
+        <v>166.65143947564</v>
       </c>
       <c r="G41" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H41" t="n">
-        <v>230.0585164427707</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I41" t="n">
         <v>21.05936271613333</v>
@@ -7445,16 +7445,16 @@
         <v>698.4535282668857</v>
       </c>
       <c r="V41" t="n">
-        <v>432.5524838712628</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="W41" t="n">
-        <v>432.5524838712628</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="X41" t="n">
-        <v>432.5524838712628</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="Y41" t="n">
-        <v>432.5524838712628</v>
+        <v>698.4535282668857</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H42" t="n">
         <v>21.05936271613333</v>
@@ -7488,22 +7488,22 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J42" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683209</v>
       </c>
       <c r="K42" t="n">
-        <v>21.05936271613333</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L42" t="n">
-        <v>261.6628906109958</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M42" t="n">
-        <v>264.2940185443782</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N42" t="n">
-        <v>524.9036321565281</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O42" t="n">
-        <v>785.3166962490202</v>
+        <v>939.8533418567041</v>
       </c>
       <c r="P42" t="n">
         <v>977.3180709271187</v>
@@ -7512,28 +7512,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R42" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S42" t="n">
-        <v>1052.968135806666</v>
+        <v>782.4144152406835</v>
       </c>
       <c r="T42" t="n">
-        <v>850.9830782217423</v>
+        <v>580.4293576557594</v>
       </c>
       <c r="U42" t="n">
-        <v>622.7627494639471</v>
+        <v>352.2090288979642</v>
       </c>
       <c r="V42" t="n">
-        <v>387.6106412322044</v>
+        <v>117.0569206662215</v>
       </c>
       <c r="W42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.3732845040028</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G43" t="n">
         <v>21.05936271613333</v>
@@ -7591,28 +7591,28 @@
         <v>182.5089274706534</v>
       </c>
       <c r="R43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y43" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>286.9604071117561</v>
+        <v>556.9999364092498</v>
       </c>
       <c r="C44" t="n">
-        <v>286.9604071117561</v>
+        <v>291.0988920136271</v>
       </c>
       <c r="D44" t="n">
-        <v>286.9604071117561</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="E44" t="n">
-        <v>286.9604071117561</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="F44" t="n">
-        <v>286.9604071117561</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="G44" t="n">
-        <v>286.9604071117561</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H44" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I44" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J44" t="n">
         <v>21.05936271613333</v>
@@ -7670,28 +7670,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R44" t="n">
-        <v>1052.968135806666</v>
+        <v>1031.902858279532</v>
       </c>
       <c r="S44" t="n">
-        <v>1052.968135806666</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="T44" t="n">
-        <v>1052.968135806666</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="U44" t="n">
-        <v>1052.968135806666</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="V44" t="n">
-        <v>1052.968135806666</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="W44" t="n">
-        <v>787.0670914110435</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="X44" t="n">
-        <v>787.0670914110435</v>
+        <v>822.9009808048727</v>
       </c>
       <c r="Y44" t="n">
-        <v>521.1660470154206</v>
+        <v>822.9009808048727</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>578.3984367623621</v>
+        <v>629.6621845606121</v>
       </c>
       <c r="C45" t="n">
-        <v>578.3984367623621</v>
+        <v>455.2091552794851</v>
       </c>
       <c r="D45" t="n">
-        <v>578.3984367623621</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="E45" t="n">
-        <v>419.1609817569066</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F45" t="n">
-        <v>272.6264237837916</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G45" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H45" t="n">
         <v>21.05936271613333</v>
@@ -7734,43 +7734,43 @@
         <v>398.8245784347747</v>
       </c>
       <c r="M45" t="n">
-        <v>659.4341920469246</v>
+        <v>456.2953932224767</v>
       </c>
       <c r="N45" t="n">
-        <v>860.9667611285679</v>
+        <v>716.9050068346266</v>
       </c>
       <c r="O45" t="n">
-        <v>860.9667611285679</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="P45" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q45" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R45" t="n">
-        <v>1014.47026572569</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S45" t="n">
-        <v>1014.47026572569</v>
+        <v>883.8995412888137</v>
       </c>
       <c r="T45" t="n">
-        <v>1014.47026572569</v>
+        <v>883.8995412888137</v>
       </c>
       <c r="U45" t="n">
-        <v>786.2499369678949</v>
+        <v>883.8995412888137</v>
       </c>
       <c r="V45" t="n">
-        <v>786.2499369678949</v>
+        <v>883.8995412888137</v>
       </c>
       <c r="W45" t="n">
-        <v>786.2499369678949</v>
+        <v>629.6621845606121</v>
       </c>
       <c r="X45" t="n">
-        <v>578.3984367623621</v>
+        <v>629.6621845606121</v>
       </c>
       <c r="Y45" t="n">
-        <v>578.3984367623621</v>
+        <v>629.6621845606121</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="C46" t="n">
         <v>891.5185710521463</v>
@@ -7831,25 +7831,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="W46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="X46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Y46" t="n">
-        <v>891.5185710521463</v>
+        <v>1052.968135806666</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>247.6798763052967</v>
       </c>
       <c r="L2" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>255.8883403615407</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>168.6093106869681</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O3" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P3" t="n">
-        <v>161.5644326746464</v>
+        <v>160.4496841792801</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,19 +8216,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>246.5651278099304</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>257.9362584875889</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P5" t="n">
         <v>258.8230210155857</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>164.3167157393088</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>167.5717993463377</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>248.8405391741648</v>
+        <v>248.8405391741647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>264.5171030991714</v>
       </c>
       <c r="M8" t="n">
-        <v>259.096921356457</v>
+        <v>257.9352773916414</v>
       </c>
       <c r="N8" t="n">
-        <v>257.0021077609596</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>258.848899550871</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>259.9836838844537</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8538,19 @@
         <v>167.3050679090584</v>
       </c>
       <c r="M9" t="n">
-        <v>170.8847220512025</v>
+        <v>169.723078086387</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>170.1852886088132</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>168.7324622152057</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>311.1665629494121</v>
       </c>
       <c r="M12" t="n">
         <v>392.8337743093848</v>
@@ -8781,13 +8781,13 @@
         <v>381.709495280812</v>
       </c>
       <c r="O12" t="n">
-        <v>188.6716133934488</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P12" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>315.295216646742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M15" t="n">
-        <v>392.8337743093848</v>
+        <v>236.7361524834414</v>
       </c>
       <c r="N15" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M18" t="n">
-        <v>392.8337743093848</v>
+        <v>236.7361524834414</v>
       </c>
       <c r="N18" t="n">
         <v>381.709495280812</v>
       </c>
       <c r="O18" t="n">
-        <v>205.762078428327</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,13 +9483,13 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M21" t="n">
-        <v>392.8337743093848</v>
+        <v>375.2833119013999</v>
       </c>
       <c r="N21" t="n">
-        <v>197.5393732613981</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>129.8481964236088</v>
       </c>
       <c r="L24" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>375.2833119013999</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N24" t="n">
-        <v>381.709495280812</v>
+        <v>380.4370814350378</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9951,19 +9951,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M27" t="n">
-        <v>256.9443198746409</v>
+        <v>240.66627131243</v>
       </c>
       <c r="N27" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>135.688738078336</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N30" t="n">
-        <v>381.709495280812</v>
+        <v>322.2342477951062</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>124.5219861368073</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>133.663080786811</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>129.8481964236088</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N33" t="n">
-        <v>197.5393732613981</v>
+        <v>380.4370814350378</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>127.8064787429921</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>371.3531930724112</v>
+        <v>333.358526823679</v>
       </c>
       <c r="N36" t="n">
-        <v>381.709495280812</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,19 +10905,19 @@
         <v>129.8481964236088</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M39" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N39" t="n">
-        <v>311.1358299865012</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5219861368073</v>
+        <v>296.9821874029635</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M42" t="n">
-        <v>132.2494453409328</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N42" t="n">
         <v>381.709495280812</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>162.3651468139937</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928326</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11382,19 +11382,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>392.8337743093848</v>
+        <v>187.6430684261041</v>
       </c>
       <c r="N45" t="n">
-        <v>322.0357129267649</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O45" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23303,25 +23303,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>19.47466811430422</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>64.51022451846831</v>
+        <v>131.1611464807218</v>
       </c>
       <c r="W11" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23385,10 +23385,10 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S12" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23397,13 +23397,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>59.57293876329473</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>100.2996914017162</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9494798159088</v>
+        <v>115.9875726860416</v>
       </c>
       <c r="H13" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2405633723436</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G14" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H14" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I14" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>4.097100052852174</v>
@@ -23552,16 +23552,16 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V14" t="n">
-        <v>95.88867496550694</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>106.4890667268024</v>
+        <v>344.7766793632121</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23580,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>110.788068148979</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,7 +23625,7 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T15" t="n">
-        <v>199.9652070090748</v>
+        <v>1.806000197540186</v>
       </c>
       <c r="U15" t="n">
         <v>225.9381254702172</v>
@@ -23640,7 +23640,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23671,10 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I16" t="n">
-        <v>154.2024705022108</v>
+        <v>102.2405633723436</v>
       </c>
       <c r="J16" t="n">
-        <v>90.42516245839145</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>76.19758376383612</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23732,28 +23732,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>361.073048809857</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G17" t="n">
-        <v>415.2102214038314</v>
+        <v>151.9681874521648</v>
       </c>
       <c r="H17" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I17" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>206.9118586999128</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U17" t="n">
         <v>251.3382516189322</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>340.0682454996846</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,7 +23814,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23868,10 +23868,10 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V18" t="n">
-        <v>56.44191018733116</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>222.7813717634642</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T19" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940478</v>
       </c>
       <c r="U19" t="n">
-        <v>126.4816966381042</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>119.491807711814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>294.124389332104</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G20" t="n">
-        <v>390.2584965991162</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H20" t="n">
         <v>338.5273214908784</v>
@@ -24014,10 +24014,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>144.0576027644702</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T20" t="n">
         <v>222.6908602868995</v>
@@ -24029,10 +24029,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24054,16 +24054,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>78.95267320396367</v>
       </c>
       <c r="G21" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>87.69233988828964</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>162.3220246030046</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24178,7 +24178,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T22" t="n">
-        <v>67.9332040940478</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U22" t="n">
         <v>286.3167657450791</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G23" t="n">
         <v>151.9681874521648</v>
       </c>
       <c r="H23" t="n">
-        <v>94.75995565351599</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I23" t="n">
         <v>206.909162189371</v>
@@ -24251,19 +24251,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>144.0576027644702</v>
+        <v>134.884879546742</v>
       </c>
       <c r="S23" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T23" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24288,10 +24288,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>54.36296454611666</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>86.71796572381307</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24336,10 +24336,10 @@
         <v>170.7637213332854</v>
       </c>
       <c r="T24" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24348,7 +24348,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>90.80143317492319</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H25" t="n">
         <v>161.8582038473137</v>
@@ -24412,7 +24412,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S25" t="n">
-        <v>223.2933741908973</v>
+        <v>146.1453275499117</v>
       </c>
       <c r="T25" t="n">
         <v>227.7682732010226</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>118.6883361205952</v>
+        <v>372.7576468545334</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24461,7 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J26" t="n">
         <v>4.097100052852174</v>
@@ -24488,10 +24488,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>22.22183253269229</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,19 +24519,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>122.4399487904929</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>4.676944147603734</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.2940166796957</v>
@@ -24570,16 +24570,16 @@
         <v>97.08446202703757</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T27" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24649,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S28" t="n">
-        <v>223.2933741908973</v>
+        <v>63.45830508392234</v>
       </c>
       <c r="T28" t="n">
         <v>227.7682732010226</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>126.6879292296162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,13 +24680,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,13 +24695,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H29" t="n">
-        <v>305.7662178957391</v>
+        <v>257.2427249238676</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S29" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>222.6908602868995</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,7 +24768,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>109.6527786727125</v>
       </c>
       <c r="G30" t="n">
         <v>137.2940166796957</v>
@@ -24804,28 +24804,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T30" t="n">
-        <v>61.51771641832499</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>132.0199415625255</v>
       </c>
       <c r="G31" t="n">
-        <v>153.5354587318652</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H31" t="n">
         <v>161.8582038473137</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>102.030857819341</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>91.44100766901636</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>163.1086799043491</v>
       </c>
       <c r="G32" t="n">
         <v>415.2102214038314</v>
@@ -24938,7 +24938,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J32" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W32" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y32" t="n">
-        <v>154.3743551514256</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>68.45723789827011</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25005,13 +25005,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.2284454182414</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I33" t="n">
         <v>87.69233988828964</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U33" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25120,7 +25120,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R34" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S34" t="n">
         <v>223.2933741908973</v>
@@ -25132,7 +25132,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V34" t="n">
-        <v>92.30257421685317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25172,10 +25172,10 @@
         <v>338.5273214908784</v>
       </c>
       <c r="I35" t="n">
-        <v>206.909162189371</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25199,25 +25199,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>122.9810972140072</v>
+        <v>62.77300619745935</v>
       </c>
       <c r="S35" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V35" t="n">
         <v>64.51022451846831</v>
       </c>
       <c r="W35" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H36" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>87.69233988828964</v>
@@ -25281,25 +25281,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T36" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>81.59626590790164</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>79.58680143389692</v>
       </c>
     </row>
     <row r="37">
@@ -25354,10 +25354,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R37" t="n">
-        <v>98.27937439571075</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S37" t="n">
         <v>223.2933741908973</v>
@@ -25406,13 +25406,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H38" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J38" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>144.0576027644702</v>
+        <v>122.9810972140072</v>
       </c>
       <c r="S38" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T38" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>64.51022451846831</v>
       </c>
       <c r="W38" t="n">
-        <v>324.286547402156</v>
+        <v>85.99893476574641</v>
       </c>
       <c r="X38" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25467,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>131.2822863064146</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25518,16 +25518,16 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>90.47997313997726</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U39" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25555,10 +25555,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>132.0199415625255</v>
       </c>
       <c r="G40" t="n">
         <v>167.9494798159088</v>
@@ -25606,7 +25606,7 @@
         <v>286.3167657450791</v>
       </c>
       <c r="V40" t="n">
-        <v>92.30257421685309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25631,25 +25631,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>154.2140138664757</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G41" t="n">
-        <v>415.2102214038314</v>
+        <v>271.0740654119198</v>
       </c>
       <c r="H41" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J41" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>251.3382516189322</v>
       </c>
       <c r="V41" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25722,7 +25722,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H42" t="n">
-        <v>0.566591207295275</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I42" t="n">
         <v>87.69233988828964</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>156.6574007903323</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>8.114410708933974</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H43" t="n">
         <v>161.8582038473137</v>
@@ -25831,7 +25831,7 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R43" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S43" t="n">
         <v>223.2933741908973</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.8702581588527</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>102.030857819341</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25880,13 @@
         <v>415.2102214038314</v>
       </c>
       <c r="H44" t="n">
-        <v>75.28528753921177</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I44" t="n">
         <v>206.909162189371</v>
       </c>
       <c r="J44" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,10 +25910,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>144.0576027644702</v>
+        <v>123.2029780126073</v>
       </c>
       <c r="S44" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>222.6908602868995</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>85.99893476574641</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>122.995904704387</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,13 +25944,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25959,7 +25959,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I45" t="n">
         <v>87.69233988828964</v>
@@ -25989,25 +25989,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>58.97157064687102</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S45" t="n">
-        <v>170.7637213332854</v>
+        <v>3.385812760611259</v>
       </c>
       <c r="T45" t="n">
         <v>199.9652070090748</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>7.41175199165292</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,7 +26071,7 @@
         <v>175.4274210366964</v>
       </c>
       <c r="S46" t="n">
-        <v>63.45830508392234</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T46" t="n">
         <v>227.7682732010226</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>439440.5956032214</v>
+        <v>439440.5956032213</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>439440.5956032213</v>
+        <v>439440.5956032214</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>439440.5956032213</v>
+        <v>439440.5956032215</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>439440.5956032213</v>
+        <v>439440.5956032215</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>439440.5956032214</v>
+        <v>439440.5956032215</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>439440.5956032213</v>
+        <v>439440.5956032215</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="D2" t="n">
         <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
-        <v>242676.2108189967</v>
+        <v>242676.2108189966</v>
       </c>
       <c r="F2" t="n">
         <v>242676.2108189967</v>
@@ -26329,16 +26329,16 @@
         <v>242676.2108189967</v>
       </c>
       <c r="H2" t="n">
+        <v>242676.2108189967</v>
+      </c>
+      <c r="I2" t="n">
         <v>242676.2108189968</v>
-      </c>
-      <c r="I2" t="n">
-        <v>242676.2108189967</v>
       </c>
       <c r="J2" t="n">
         <v>242676.2108189967</v>
       </c>
       <c r="K2" t="n">
-        <v>242676.2108189967</v>
+        <v>242676.2108189968</v>
       </c>
       <c r="L2" t="n">
         <v>242676.2108189967</v>
@@ -26347,7 +26347,7 @@
         <v>242676.2108189967</v>
       </c>
       <c r="N2" t="n">
-        <v>242676.2108189967</v>
+        <v>242676.2108189966</v>
       </c>
       <c r="O2" t="n">
         <v>242676.2108189967</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>360.5367069564948</v>
+        <v>360.5367069564893</v>
       </c>
       <c r="E3" t="n">
-        <v>88502.97774369975</v>
+        <v>88502.97774369977</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>7218.764569210161</v>
+        <v>7218.764569210151</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>388706.09921515</v>
+        <v>388983.8333145984</v>
       </c>
       <c r="C4" t="n">
-        <v>388706.09921515</v>
+        <v>388983.8333145985</v>
       </c>
       <c r="D4" t="n">
-        <v>388500.1548477256</v>
+        <v>388778.6303043041</v>
       </c>
       <c r="E4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="F4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="G4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="H4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="I4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.89704119759</v>
       </c>
       <c r="J4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="K4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.89704119759</v>
       </c>
       <c r="L4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.89704119759</v>
       </c>
       <c r="M4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.89704119759</v>
       </c>
       <c r="N4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="O4" t="n">
-        <v>75219.70755575936</v>
+        <v>75622.8970411976</v>
       </c>
       <c r="P4" t="n">
-        <v>75219.70755575938</v>
+        <v>75622.89704119759</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>141472.0141187083</v>
+        <v>141194.2800192599</v>
       </c>
       <c r="C6" t="n">
-        <v>150718.0661540211</v>
+        <v>150440.3320545725</v>
       </c>
       <c r="D6" t="n">
-        <v>150492.9055120617</v>
+        <v>150214.4300554832</v>
       </c>
       <c r="E6" t="n">
-        <v>62446.71811270427</v>
+        <v>62043.52862726586</v>
       </c>
       <c r="F6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709657</v>
       </c>
       <c r="G6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709657</v>
       </c>
       <c r="H6" t="n">
-        <v>150949.6958564041</v>
+        <v>150546.5063709657</v>
       </c>
       <c r="I6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709659</v>
       </c>
       <c r="J6" t="n">
-        <v>143730.9312871939</v>
+        <v>143327.7418017556</v>
       </c>
       <c r="K6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709659</v>
       </c>
       <c r="L6" t="n">
-        <v>150655.9425302594</v>
+        <v>150252.7530448211</v>
       </c>
       <c r="M6" t="n">
-        <v>92513.51451205803</v>
+        <v>92110.32502661992</v>
       </c>
       <c r="N6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709657</v>
       </c>
       <c r="O6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709657</v>
       </c>
       <c r="P6" t="n">
-        <v>150949.695856404</v>
+        <v>150546.5063709658</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="D4" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="E4" t="n">
         <v>263.2420339516666</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.16066286886809</v>
+        <v>1.160662868868072</v>
       </c>
       <c r="E4" t="n">
         <v>234.4913458224824</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031616</v>
+        <v>27.59002526031612</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.16066286886809</v>
+        <v>1.160662868868072</v>
       </c>
       <c r="M4" t="n">
         <v>234.4913458224824</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>358.4325474141941</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>337.6828665106914</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27400,7 +27400,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>122.2790926808335</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>206.6587639061162</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.9784807268387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,19 +27464,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>117.4791871330677</v>
       </c>
       <c r="G3" t="n">
-        <v>109.7534919028945</v>
+        <v>113.788814240182</v>
       </c>
       <c r="H3" t="n">
         <v>84.64541897618032</v>
       </c>
       <c r="I3" t="n">
-        <v>61.80660759109894</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27558,10 +27558,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>70.91042075616338</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>58.57201799137825</v>
@@ -27585,7 +27585,7 @@
         <v>149.7033661168533</v>
       </c>
       <c r="S4" t="n">
-        <v>196.4265727766561</v>
+        <v>198.9687459771361</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3403448119457</v>
       </c>
       <c r="F5" t="n">
-        <v>379.2860204813953</v>
+        <v>397.87748900756</v>
       </c>
       <c r="G5" t="n">
-        <v>387.7127122548189</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>342.1410754181529</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>358.6479133957374</v>
       </c>
     </row>
     <row r="6">
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.2318894005809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>109.7534919028945</v>
+        <v>113.788814240182</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>84.64541897618032</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>61.80660759109894</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>118.843937386253</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,10 +27789,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.6371472471234</v>
+        <v>142.4998538820367</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>127.8604496669421</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R7" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>266.591710731088</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27865,7 +27865,7 @@
         <v>378.1253576125272</v>
       </c>
       <c r="G8" t="n">
-        <v>386.5520493859508</v>
+        <v>386.5520493859509</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>121.1184298119655</v>
+        <v>146.4855004061216</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,7 +27910,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>324.3686409351068</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>357.4872505268694</v>
       </c>
     </row>
     <row r="9">
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>71.40714602345892</v>
       </c>
       <c r="S9" t="n">
         <v>142.9324829746536</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>171.4140405656374</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>207.4769810452398</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>222.9442950317354</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>177.0222970742932</v>
+        <v>181.1959704255499</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>138.4961329694436</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>119.8647848890281</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>116.670359893747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>139.2402912292745</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>136.9300135529044</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.920141142234</v>
+        <v>57.41135512251017</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>148.5427032479853</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -33409,19 +33409,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I32" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J32" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K32" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L32" t="n">
         <v>14.5997362345548</v>
@@ -33439,10 +33439,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S32" t="n">
         <v>2.10821088633251</v>
@@ -33451,7 +33451,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U32" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33497,10 +33497,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J33" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K33" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L33" t="n">
         <v>10.74790103688213</v>
@@ -33509,7 +33509,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N33" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O33" t="n">
         <v>11.77742425104019</v>
@@ -33518,19 +33518,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R33" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T33" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U33" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,10 +33567,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I34" t="n">
         <v>1.248004425047526</v>
@@ -33579,37 +33579,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K34" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L34" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M34" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N34" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O34" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P34" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R34" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S34" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T34" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U34" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I35" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J35" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K35" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L35" t="n">
         <v>14.5997362345548</v>
@@ -33676,10 +33676,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S35" t="n">
         <v>2.10821088633251</v>
@@ -33688,7 +33688,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U35" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,10 +33734,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J36" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K36" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L36" t="n">
         <v>10.74790103688213</v>
@@ -33746,7 +33746,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N36" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O36" t="n">
         <v>11.77742425104019</v>
@@ -33755,19 +33755,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R36" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T36" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U36" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,10 +33804,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H37" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I37" t="n">
         <v>1.248004425047526</v>
@@ -33816,37 +33816,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K37" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L37" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M37" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N37" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O37" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P37" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R37" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S37" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T37" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U37" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,19 +33883,19 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I38" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J38" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K38" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L38" t="n">
         <v>14.5997362345548</v>
@@ -33913,10 +33913,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S38" t="n">
         <v>2.10821088633251</v>
@@ -33925,7 +33925,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U38" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J39" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K39" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L39" t="n">
         <v>10.74790103688213</v>
@@ -33983,7 +33983,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N39" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O39" t="n">
         <v>11.77742425104019</v>
@@ -33992,19 +33992,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R39" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T39" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U39" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,10 +34041,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I40" t="n">
         <v>1.248004425047526</v>
@@ -34053,37 +34053,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K40" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L40" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M40" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N40" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O40" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P40" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R40" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S40" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T40" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U40" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,19 +34120,19 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I41" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J41" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K41" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L41" t="n">
         <v>14.5997362345548</v>
@@ -34150,10 +34150,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S41" t="n">
         <v>2.10821088633251</v>
@@ -34162,7 +34162,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U41" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,10 +34208,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J42" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K42" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L42" t="n">
         <v>10.74790103688213</v>
@@ -34220,7 +34220,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N42" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O42" t="n">
         <v>11.77742425104019</v>
@@ -34229,19 +34229,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R42" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S42" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T42" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U42" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,10 +34278,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I43" t="n">
         <v>1.248004425047526</v>
@@ -34290,37 +34290,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K43" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L43" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M43" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N43" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O43" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P43" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R43" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S43" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T43" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U43" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,19 +34357,19 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I44" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J44" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K44" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L44" t="n">
         <v>14.5997362345548</v>
@@ -34387,10 +34387,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S44" t="n">
         <v>2.10821088633251</v>
@@ -34399,7 +34399,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U44" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,10 +34445,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J45" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K45" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L45" t="n">
         <v>10.74790103688213</v>
@@ -34457,7 +34457,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N45" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O45" t="n">
         <v>11.77742425104019</v>
@@ -34466,19 +34466,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R45" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S45" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T45" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U45" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,10 +34515,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I46" t="n">
         <v>1.248004425047526</v>
@@ -34527,37 +34527,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K46" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L46" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M46" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N46" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O46" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P46" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R46" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S46" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T46" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U46" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34702,19 +34702,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>26.47527676494984</v>
+      </c>
+      <c r="O2" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N2" t="n">
-        <v>26.47527676494983</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O3" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P3" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>27.59002526031614</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>27.59002526031614</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="M8" t="n">
-        <v>28.75068812918423</v>
+        <v>27.58904416436869</v>
       </c>
       <c r="N8" t="n">
-        <v>27.5890441643687</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>28.75068812918423</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="L9" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="M9" t="n">
-        <v>28.75068812918423</v>
+        <v>27.58904416436869</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>27.58904416436872</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,10 +35337,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="N10" t="n">
-        <v>28.75068812918423</v>
+        <v>28.75068812918421</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,13 +35410,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L11" t="n">
         <v>196.494535815018</v>
       </c>
       <c r="M11" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945114</v>
       </c>
       <c r="N11" t="n">
         <v>224.4417418455864</v>
@@ -35492,7 +35492,7 @@
         <v>134.6170405889698</v>
       </c>
       <c r="L12" t="n">
-        <v>243.0338665604671</v>
+        <v>183.3600842064201</v>
       </c>
       <c r="M12" t="n">
         <v>263.2420339516666</v>
@@ -35501,13 +35501,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O12" t="n">
-        <v>57.85279320004458</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>115.8239578194291</v>
       </c>
       <c r="L14" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150181</v>
       </c>
       <c r="M14" t="n">
         <v>235.4123198945113</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K15" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L15" t="n">
-        <v>187.4887379037499</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>107.1444121257232</v>
+      </c>
+      <c r="N15" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>263.0434990833253</v>
@@ -35744,7 +35744,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>196.494535815018</v>
       </c>
       <c r="M17" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945114</v>
       </c>
       <c r="N17" t="n">
-        <v>224.4417418455865</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O17" t="n">
         <v>166.2898937894758</v>
@@ -35963,25 +35963,25 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L18" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>263.2420339516666</v>
+        <v>107.1444121257232</v>
       </c>
       <c r="N18" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="O18" t="n">
-        <v>74.94325823492277</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P18" t="n">
         <v>193.9407825031299</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>245.6915715436817</v>
+      </c>
+      <c r="N21" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="N21" t="n">
-        <v>79.07191193225269</v>
       </c>
       <c r="O21" t="n">
         <v>263.0434990833253</v>
@@ -36218,7 +36218,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M24" t="n">
-        <v>245.6915715436817</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>263.2420339516666</v>
+        <v>261.9696201058925</v>
       </c>
       <c r="O24" t="n">
         <v>263.0434990833253</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L27" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.3525795169227</v>
+        <v>111.0745309547119</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O27" t="n">
         <v>263.0434990833253</v>
@@ -36911,22 +36911,22 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K30" t="n">
-        <v>5.840541654727224</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L30" t="n">
         <v>243.0338665604671</v>
       </c>
       <c r="M30" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>263.2420339516666</v>
+        <v>203.7667864659608</v>
       </c>
       <c r="O30" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M33" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>79.07191193225269</v>
+        <v>261.9696201058925</v>
       </c>
       <c r="O33" t="n">
         <v>263.0434990833253</v>
@@ -37166,7 +37166,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P34" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M36" t="n">
-        <v>241.7614527146931</v>
+        <v>203.7667864659608</v>
       </c>
       <c r="N36" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>263.0434990833253</v>
@@ -37403,7 +37403,7 @@
         <v>193.9407825031299</v>
       </c>
       <c r="Q36" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P37" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N39" t="n">
-        <v>192.6683686573558</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O39" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>172.4602012661562</v>
       </c>
       <c r="Q39" t="n">
         <v>76.41420694903812</v>
@@ -37716,7 +37716,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P40" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.930118828988642</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L42" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2.657704983214605</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N42" t="n">
         <v>263.2420339516666</v>
@@ -37874,7 +37874,7 @@
         <v>263.0434990833253</v>
       </c>
       <c r="P42" t="n">
-        <v>193.9407825031299</v>
+        <v>37.84316067718645</v>
       </c>
       <c r="Q42" t="n">
         <v>76.41420694903812</v>
@@ -37953,7 +37953,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P43" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>196.494535815018</v>
       </c>
       <c r="M44" t="n">
-        <v>235.4123198945114</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N44" t="n">
         <v>224.4417418455864</v>
@@ -38102,19 +38102,19 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M45" t="n">
+        <v>58.05132806838593</v>
+      </c>
+      <c r="N45" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="N45" t="n">
-        <v>203.5682515976195</v>
-      </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P45" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P46" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
